--- a/DesignDocs/VariableData/TubeTraits.xlsx
+++ b/DesignDocs/VariableData/TubeTraits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,83 +42,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바보스러운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명랑한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상냥한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지루한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남루한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍청한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chain_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초라한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엉성한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜브 드롭 확률 1% 저하</t>
+    <t>행운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 상승 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 드랍확률 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜브 드랍확률 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 드랍확률 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재빠름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 데미지 5% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강렬함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리 데미지 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 드랍확률을 랜덤으로 -10% 하락하거나, +10%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜브 드랍확률 5%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 드랍확률 5%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 비 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 비 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 드랍확률 5%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허약함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 데미지 5% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안강력함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안투지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정확함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정밀함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안재빠름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리 데미지 10%하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인지 데미지 5%, 범위 1 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인지 데미지 5%, 범위 1 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바운스 데미지 10% 상승 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스 데미지 10% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임 10% 상승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,15 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="25.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -474,21 +551,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>2100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -496,114 +570,254 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2101</v>
-      </c>
-      <c r="B3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>2102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4003</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>2103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>4004</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>4005</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>2105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>4006</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>2106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>4007</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>4008</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>4009</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>4011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>4014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>4018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/TubeTraits.xlsx
+++ b/DesignDocs/VariableData/TubeTraits.xlsx
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도박꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>든든함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 데미지 5% 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강렬함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 드랍확률을 랜덤으로 -10% 하락하거나, +10%상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>튜브 드랍확률 5%감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,38 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안강력함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안투지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안정확함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안정밀함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안재빠름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀리 데미지 10%하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레인지 데미지 5%, 범위 1 하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레인지 데미지 5%, 범위 1 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">바운스 데미지 10% 상승 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +151,50 @@
   </si>
   <si>
     <t>스킬 쿨타임 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게으른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불확실한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조잡한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬 데미지 5% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statCid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인지 데미지 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인지 데미지 10% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리 데미지 10% 하락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,19 +525,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="49.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,40 +553,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>-1</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>-1</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>1005</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -592,83 +612,119 @@
       <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>1006</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>1012</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>1007</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>1008</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>1009</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>-1</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>1010</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -676,148 +732,194 @@
       <c r="D10">
         <v>-1</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>1011</v>
+      </c>
+      <c r="F10">
+        <v>-10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>4009</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>-5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>4010</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>4011</v>
-      </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>1005</v>
+      </c>
+      <c r="F12">
+        <v>-5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>1006</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>1012</v>
+      </c>
+      <c r="F14">
+        <v>-10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>1007</v>
+      </c>
+      <c r="F15">
+        <v>-5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>1008</v>
+      </c>
+      <c r="F16">
+        <v>-10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>1009</v>
+      </c>
+      <c r="F17">
+        <v>-10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>1010</v>
+      </c>
+      <c r="F18">
+        <v>-10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>4019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
+      <c r="E19">
+        <v>1011</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/TubeTraits.xlsx
+++ b/DesignDocs/VariableData/TubeTraits.xlsx
@@ -46,155 +46,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>든든함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 상승 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 드랍확률 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜브 드랍확률 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 드랍확률 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재빠름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강렬함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리 데미지 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜브 드랍확률 5%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 드랍확률 5%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 비 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 비 수집가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰플 드랍확률 5%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허약함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 데미지 5% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바운스 데미지 10% 상승 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스 데미지 10% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게으른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불확실한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조잡한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬 데미지 5% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statCid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인지 데미지 10% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인지 데미지 10% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리 데미지 10% 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>행운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>든든함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 상승 10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정확함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팀팩 드랍확률 5%상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜브 드랍확률 5%상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앰플 드랍확률 5%상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팀팩 수집가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앰플 수집가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정밀함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재빠름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 쿨타임 10% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강렬함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀리 데미지 10% 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜브 드랍확률 5%감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팀팩 드랍확률 5%감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앰플 비 수집가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팀팩 비 수집가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앰플 드랍확률 5%감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 10% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허약함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 데미지 5% 하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">바운스 데미지 10% 상승 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바운스 데미지 10% 하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 쿨타임 10% 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게으른</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불확실한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조잡한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬 데미지 5% 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statCid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레인지 데미지 10% 상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레인지 데미지 10% 하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀리 데미지 10% 하락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D11" sqref="D11:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>4000</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -587,7 +587,7 @@
         <v>4001</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -607,7 +607,7 @@
         <v>4002</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -627,7 +627,7 @@
         <v>4003</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -647,7 +647,7 @@
         <v>4004</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -667,7 +667,7 @@
         <v>4005</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -679,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -687,7 +687,7 @@
         <v>4006</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -707,7 +707,7 @@
         <v>4007</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -727,7 +727,7 @@
         <v>4008</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -739,7 +739,7 @@
         <v>-10</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -747,7 +747,7 @@
         <v>4009</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>-5</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -767,7 +767,7 @@
         <v>4010</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>-5</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -787,7 +787,7 @@
         <v>4011</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -807,7 +807,7 @@
         <v>4012</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>-10</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -827,7 +827,7 @@
         <v>4013</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>-5</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -847,7 +847,7 @@
         <v>4014</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>-10</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -867,7 +867,7 @@
         <v>4015</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>-10</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -887,7 +887,7 @@
         <v>4016</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>-10</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -907,7 +907,7 @@
         <v>4017</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
